--- a/data/air_info/上海-厦门.xlsx
+++ b/data/air_info/上海-厦门.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\Desktop\air_info\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lenovo\PycharmProjects\BJUT_dsc\data\air_info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81D25C9A-0E83-4073-AE5F-279893ADAB11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A14838AB-4000-4414-BCA9-7A14C9A2877A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,24 +33,12 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="28">
   <si>
-    <t>行程时间：1 小时 40 分钟</t>
-  </si>
-  <si>
-    <t>行程时间：2 小时 5 分钟</t>
-  </si>
-  <si>
     <t>上航经济舱Boeing 737FM 9535</t>
   </si>
   <si>
-    <t>行程时间：1 小时 45 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Boeing 737MAX 8 PassengerMF 8518</t>
   </si>
   <si>
-    <t>行程时间：2 小时</t>
-  </si>
-  <si>
     <t>吉祥航空经济舱Airbus A320HO 1105</t>
   </si>
   <si>
@@ -60,18 +48,12 @@
     <t>厦航经济舱Boeing 737MAX 8 PassengerMF 8502</t>
   </si>
   <si>
-    <t>行程时间：1 小时 50 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Airbus A321neoMF 8512</t>
   </si>
   <si>
     <t>东航经济舱Airbus A321MU 5647</t>
   </si>
   <si>
-    <t>行程时间：1 小时 55 分钟</t>
-  </si>
-  <si>
     <t>厦航经济舱Boeing 737MF 8522</t>
   </si>
   <si>
@@ -115,7 +97,24 @@
   </si>
   <si>
     <t>机票价格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 小时 5 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 45 分钟</t>
+  </si>
+  <si>
+    <t>2 小时</t>
+  </si>
+  <si>
+    <t>1 小时 50 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 40 分钟</t>
+  </si>
+  <si>
+    <t>1 小时 55 分钟</t>
   </si>
 </sst>
 </file>
@@ -471,7 +470,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.25"/>
@@ -480,33 +479,32 @@
     <col min="3" max="3" width="27.90625" style="1" customWidth="1"/>
     <col min="4" max="5" width="33.36328125" style="1" customWidth="1"/>
     <col min="6" max="6" width="35.36328125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="31.81640625" style="1" customWidth="1"/>
-    <col min="8" max="11" width="8.7265625" style="1"/>
-    <col min="12" max="12" width="20.6328125" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.7265625" style="1"/>
+    <col min="7" max="10" width="8.7265625" style="1"/>
+    <col min="11" max="11" width="20.6328125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="8.7265625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -514,23 +512,22 @@
         <v>0.3263888888888889</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="D2" s="2">
         <v>0.41319444444444442</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G2" s="1">
-        <f ca="1">RANDBETWEEN(1500,3000)</f>
-        <v>1697</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -538,23 +535,22 @@
         <v>0.34027777777777779</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D3" s="2">
         <v>0.41319444444444442</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G3" s="1">
-        <f t="shared" ref="G3:G13" ca="1" si="0">RANDBETWEEN(1500,3000)</f>
-        <v>1803</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -562,23 +558,22 @@
         <v>0.35416666666666669</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="2">
         <v>0.4375</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1823</v>
+        <v>2911</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,23 +581,22 @@
         <v>0.37152777777777779</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D5" s="2">
         <v>0.44444444444444442</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="G5" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1673</v>
+        <v>2298</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -610,23 +604,22 @@
         <v>0.4236111111111111</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>0.49652777777777779</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="G6" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2571</v>
+        <v>2650</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -634,23 +627,22 @@
         <v>0.50694444444444442</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D7" s="2">
         <v>0.58333333333333337</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="G7" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1555</v>
+        <v>2542</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -658,23 +650,22 @@
         <v>0.53819444444444442</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D8" s="2">
         <v>0.61458333333333337</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="G8" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1834</v>
+        <v>1613</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -682,23 +673,22 @@
         <v>0.67361111111111116</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
         <v>0.74305555555555558</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1577</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -706,23 +696,22 @@
         <v>0.71875</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D10" s="2">
         <v>0.79166666666666663</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G10" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>1997</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,23 +719,22 @@
         <v>0.75694444444444442</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D11" s="2">
         <v>0.83333333333333337</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="G11" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2236</v>
+        <v>2819</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -754,23 +742,22 @@
         <v>0.78125</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2">
         <v>0.85763888888888884</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="G12" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2194</v>
+        <v>2538</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,23 +765,22 @@
         <v>0.80208333333333337</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13" s="2">
         <v>0.88194444444444442</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ca="1" si="0"/>
-        <v>2374</v>
+        <v>2716</v>
       </c>
     </row>
   </sheetData>
